--- a/Documenten/urenoverzicht.xlsx
+++ b/Documenten/urenoverzicht.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\GitHub\IRunIT\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Totaal aantal uren:</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Steffan</t>
   </si>
   <si>
-    <t>Franck, Stephan</t>
-  </si>
-  <si>
     <t>Franck</t>
   </si>
   <si>
@@ -134,27 +131,9 @@
     <t>Steffan, Stephan</t>
   </si>
   <si>
-    <t>Hoofscherm UI</t>
-  </si>
-  <si>
-    <t>Brian, Nawid, Franck</t>
-  </si>
-  <si>
     <t>Uren besteedt voor alle personen</t>
   </si>
   <si>
-    <t>748 totaal</t>
-  </si>
-  <si>
-    <t>Projecten selecteren</t>
-  </si>
-  <si>
-    <t>Franck, Steffan</t>
-  </si>
-  <si>
-    <t>Bieden en hoogste bod bepalen</t>
-  </si>
-  <si>
     <t>Nawid, Brian</t>
   </si>
   <si>
@@ -165,13 +144,76 @@
   </si>
   <si>
     <t>Overleg, inclusief besprekeningen met leraar</t>
+  </si>
+  <si>
+    <t>784 totaal</t>
+  </si>
+  <si>
+    <t>Objecten positioneren met x, y en depth</t>
+  </si>
+  <si>
+    <t>Objecten definieren (incl. Sprites &amp; center)</t>
+  </si>
+  <si>
+    <t>Data overdracht tussen Server en Client, per Case</t>
+  </si>
+  <si>
+    <t>GameMaker basis werking/bediening bestuderen</t>
+  </si>
+  <si>
+    <t>Stephan, Franck, Jasper, Nawid, Brian, Xander</t>
+  </si>
+  <si>
+    <t>Tutorial scherm</t>
+  </si>
+  <si>
+    <t>Infoschermen</t>
+  </si>
+  <si>
+    <t>Jasper, Brian</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Nawid, Brian, Xander</t>
+  </si>
+  <si>
+    <t>(Dubbelop)</t>
+  </si>
+  <si>
+    <t>Verdeling code in componenten (incl. documenthierarchie)</t>
+  </si>
+  <si>
+    <t>Samenvoegen Server &amp; Client code voor één executable</t>
+  </si>
+  <si>
+    <t>Brian, Nawid, Franck, Steffan</t>
+  </si>
+  <si>
+    <t>Hoofdscherm UI (Incl. opsplitsing Views)</t>
+  </si>
+  <si>
+    <t>Projecten selecteren (Incl. volgorde van wie mag selecteren)</t>
+  </si>
+  <si>
+    <t>Franck, Steffan, Xander, Nawid</t>
+  </si>
+  <si>
+    <t>Franck, Stephan, Nawid</t>
+  </si>
+  <si>
+    <t>Bieden en hoogste bod bepalen (Incl. lijst bijhouden op server)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +232,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,9 +273,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -354,7 +405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,17 +555,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -526,113 +577,116 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
-        <f>SUM(C2:C100)</f>
-        <v>404</v>
+        <f>SUM(C2:C104)</f>
+        <v>661</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -640,10 +694,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -651,10 +705,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -662,10 +716,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -673,32 +727,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -706,10 +760,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -717,134 +771,225 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/urenoverzicht.xlsx
+++ b/Documenten/urenoverzicht.xlsx
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Totaal aantal uren:</t>
   </si>
   <si>
-    <t>Schermontwerpen</t>
-  </si>
-  <si>
     <t>Persoon/Personen</t>
   </si>
   <si>
     <t>Taak/functionaliteit</t>
   </si>
   <si>
-    <t>Xander, Nawid, Brian</t>
-  </si>
-  <si>
     <t>Architectuurdocument</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>Overleg, inclusief besprekeningen met leraar</t>
   </si>
   <si>
-    <t>784 totaal</t>
-  </si>
-  <si>
     <t>Objecten positioneren met x, y en depth</t>
   </si>
   <si>
@@ -170,21 +161,12 @@
     <t>Infoschermen</t>
   </si>
   <si>
-    <t>Jasper, Brian</t>
-  </si>
-  <si>
     <t>Brian</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Nawid, Brian, Xander</t>
   </si>
   <si>
-    <t>(Dubbelop)</t>
-  </si>
-  <si>
     <t>Verdeling code in componenten (incl. documenthierarchie)</t>
   </si>
   <si>
@@ -207,6 +189,9 @@
   </si>
   <si>
     <t>Bieden en hoogste bod bepalen (Incl. lijst bijhouden op server)</t>
+  </si>
+  <si>
+    <t>Jasper, Brian, Franck</t>
   </si>
 </sst>
 </file>
@@ -238,7 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,160 +550,155 @@
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
-        <f>SUM(C2:C104)</f>
-        <v>661</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C103)</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -727,32 +706,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -760,10 +739,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -771,35 +750,35 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
         <v>10</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +800,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,131 +808,131 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
       <c r="C28">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
         <v>10</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="5">
         <v>70</v>
@@ -961,35 +940,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="5">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
